--- a/inputXls/Rooms.xlsx
+++ b/inputXls/Rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFB0A064-4CD7-44C8-A057-2996359A6392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8569FC0-2B24-47A6-9771-C6DCDDC091E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" xr2:uid="{A49F660F-0BBF-4518-9B19-1AB2A8C7C7E3}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="28800" windowHeight="11295" xr2:uid="{A49F660F-0BBF-4518-9B19-1AB2A8C7C7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>IPA 1</t>
+  </si>
+  <si>
+    <t>IPA 2</t>
+  </si>
+  <si>
+    <t>IPA 3</t>
+  </si>
+  <si>
+    <t>IPA 4</t>
+  </si>
+  <si>
+    <t>IPS 2</t>
+  </si>
+  <si>
+    <t>IPS 1</t>
+  </si>
+  <si>
+    <t>IPS 3</t>
   </si>
 </sst>
 </file>
@@ -401,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2945E11B-3F18-462F-8060-7742F6EC1576}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +438,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
